--- a/PLCTags.xlsx
+++ b/PLCTags.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Re7f8ece4af9247fd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="Rd597227c08da4030"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1530">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1573">
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
   </x:si>
@@ -4598,6 +4598,135 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">%MB201</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">RTK4_EL1_Lay</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MB202</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Meandr 0.5s</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M10.5</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_24</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M5.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">T9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Timer</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%T9</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">T10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%T10</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Emergency_Security</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M100.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_25</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MB50</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_26</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M50.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_27</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MW50</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_28</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MB48</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">StatReciev</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MW52</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_30</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MW54</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ErrorReciev</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M50.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_32</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M50.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_33</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MB58</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_34</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M60.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">ErrorSend</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M60.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">StatusSend</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%MW62</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Tag_37</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M60.2</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KA2_1_AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M200.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KA2_2_AUTO</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M200.1</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -24779,6 +24908,678 @@
         <x:v>16</x:v>
       </x:c>
     </x:row>
+    <x:row r="630">
+      <x:c r="A630" s="0" t="s">
+        <x:v>1530</x:v>
+      </x:c>
+      <x:c r="B630" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C630" s="0" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+      <x:c r="D630" s="0" t="s">
+        <x:v>1531</x:v>
+      </x:c>
+      <x:c r="E630" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F630" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G630" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H630" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I630" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J630" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="631">
+      <x:c r="A631" s="0" t="s">
+        <x:v>1532</x:v>
+      </x:c>
+      <x:c r="B631" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C631" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D631" s="0" t="s">
+        <x:v>1533</x:v>
+      </x:c>
+      <x:c r="E631" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F631" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G631" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H631" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I631" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J631" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="632">
+      <x:c r="A632" s="0" t="s">
+        <x:v>1534</x:v>
+      </x:c>
+      <x:c r="B632" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C632" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D632" s="0" t="s">
+        <x:v>1535</x:v>
+      </x:c>
+      <x:c r="E632" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F632" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G632" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H632" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I632" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J632" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="633">
+      <x:c r="A633" s="0" t="s">
+        <x:v>1536</x:v>
+      </x:c>
+      <x:c r="B633" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C633" s="0" t="s">
+        <x:v>1537</x:v>
+      </x:c>
+      <x:c r="D633" s="0" t="s">
+        <x:v>1538</x:v>
+      </x:c>
+      <x:c r="E633" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F633" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G633" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H633" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I633" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J633" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="634">
+      <x:c r="A634" s="0" t="s">
+        <x:v>1539</x:v>
+      </x:c>
+      <x:c r="B634" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C634" s="0" t="s">
+        <x:v>1537</x:v>
+      </x:c>
+      <x:c r="D634" s="0" t="s">
+        <x:v>1540</x:v>
+      </x:c>
+      <x:c r="E634" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F634" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G634" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H634" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I634" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J634" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="635">
+      <x:c r="A635" s="0" t="s">
+        <x:v>1541</x:v>
+      </x:c>
+      <x:c r="B635" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C635" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D635" s="0" t="s">
+        <x:v>1542</x:v>
+      </x:c>
+      <x:c r="E635" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F635" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G635" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H635" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I635" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J635" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="636">
+      <x:c r="A636" s="0" t="s">
+        <x:v>1543</x:v>
+      </x:c>
+      <x:c r="B636" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C636" s="0" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+      <x:c r="D636" s="0" t="s">
+        <x:v>1544</x:v>
+      </x:c>
+      <x:c r="E636" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F636" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G636" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H636" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I636" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J636" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="637">
+      <x:c r="A637" s="0" t="s">
+        <x:v>1545</x:v>
+      </x:c>
+      <x:c r="B637" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C637" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D637" s="0" t="s">
+        <x:v>1546</x:v>
+      </x:c>
+      <x:c r="E637" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F637" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G637" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H637" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I637" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J637" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="638">
+      <x:c r="A638" s="0" t="s">
+        <x:v>1547</x:v>
+      </x:c>
+      <x:c r="B638" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C638" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="D638" s="0" t="s">
+        <x:v>1548</x:v>
+      </x:c>
+      <x:c r="E638" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F638" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G638" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H638" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I638" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J638" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="639">
+      <x:c r="A639" s="0" t="s">
+        <x:v>1549</x:v>
+      </x:c>
+      <x:c r="B639" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C639" s="0" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+      <x:c r="D639" s="0" t="s">
+        <x:v>1550</x:v>
+      </x:c>
+      <x:c r="E639" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F639" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G639" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H639" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I639" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J639" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="640">
+      <x:c r="A640" s="0" t="s">
+        <x:v>1551</x:v>
+      </x:c>
+      <x:c r="B640" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C640" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="D640" s="0" t="s">
+        <x:v>1552</x:v>
+      </x:c>
+      <x:c r="E640" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F640" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G640" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H640" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I640" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J640" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="641">
+      <x:c r="A641" s="0" t="s">
+        <x:v>1553</x:v>
+      </x:c>
+      <x:c r="B641" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C641" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="D641" s="0" t="s">
+        <x:v>1554</x:v>
+      </x:c>
+      <x:c r="E641" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F641" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G641" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H641" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I641" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J641" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="642">
+      <x:c r="A642" s="0" t="s">
+        <x:v>1555</x:v>
+      </x:c>
+      <x:c r="B642" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C642" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D642" s="0" t="s">
+        <x:v>1556</x:v>
+      </x:c>
+      <x:c r="E642" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F642" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G642" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H642" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I642" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J642" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="643">
+      <x:c r="A643" s="0" t="s">
+        <x:v>1557</x:v>
+      </x:c>
+      <x:c r="B643" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C643" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D643" s="0" t="s">
+        <x:v>1558</x:v>
+      </x:c>
+      <x:c r="E643" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F643" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G643" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H643" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I643" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J643" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="644">
+      <x:c r="A644" s="0" t="s">
+        <x:v>1559</x:v>
+      </x:c>
+      <x:c r="B644" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C644" s="0" t="s">
+        <x:v>1526</x:v>
+      </x:c>
+      <x:c r="D644" s="0" t="s">
+        <x:v>1560</x:v>
+      </x:c>
+      <x:c r="E644" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F644" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G644" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H644" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I644" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J644" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="645">
+      <x:c r="A645" s="0" t="s">
+        <x:v>1561</x:v>
+      </x:c>
+      <x:c r="B645" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C645" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D645" s="0" t="s">
+        <x:v>1562</x:v>
+      </x:c>
+      <x:c r="E645" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F645" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G645" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H645" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I645" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J645" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="646">
+      <x:c r="A646" s="0" t="s">
+        <x:v>1563</x:v>
+      </x:c>
+      <x:c r="B646" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C646" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D646" s="0" t="s">
+        <x:v>1564</x:v>
+      </x:c>
+      <x:c r="E646" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F646" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G646" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H646" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I646" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J646" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="647">
+      <x:c r="A647" s="0" t="s">
+        <x:v>1565</x:v>
+      </x:c>
+      <x:c r="B647" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C647" s="0" t="s">
+        <x:v>1150</x:v>
+      </x:c>
+      <x:c r="D647" s="0" t="s">
+        <x:v>1566</x:v>
+      </x:c>
+      <x:c r="E647" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F647" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G647" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H647" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I647" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J647" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="648">
+      <x:c r="A648" s="0" t="s">
+        <x:v>1567</x:v>
+      </x:c>
+      <x:c r="B648" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C648" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D648" s="0" t="s">
+        <x:v>1568</x:v>
+      </x:c>
+      <x:c r="E648" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F648" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G648" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H648" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I648" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J648" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="649">
+      <x:c r="A649" s="0" t="s">
+        <x:v>1569</x:v>
+      </x:c>
+      <x:c r="B649" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C649" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D649" s="0" t="s">
+        <x:v>1570</x:v>
+      </x:c>
+      <x:c r="E649" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F649" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G649" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H649" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I649" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J649" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="650">
+      <x:c r="A650" s="0" t="s">
+        <x:v>1571</x:v>
+      </x:c>
+      <x:c r="B650" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C650" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D650" s="0" t="s">
+        <x:v>1572</x:v>
+      </x:c>
+      <x:c r="E650" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F650" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G650" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H650" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I650" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J650" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
--- a/PLCTags.xlsx
+++ b/PLCTags.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R3323afe0568e4be6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PLC Tags" sheetId="1" r:id="R07711adcd0ad4342"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1669">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1681">
   <x:si>
     <x:t xml:space="preserve">Name</x:t>
   </x:si>
@@ -5015,6 +5015,42 @@
   </x:si>
   <x:si>
     <x:t xml:space="preserve">%M204.4</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">m300_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M300.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">m300_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M300.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">m301_0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M301.0</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">m301_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M301.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KA25_1_1_auto</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M199.1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">KA25_1_2_auto</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">%M199.2</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -26956,6 +26992,198 @@
         <x:v>16</x:v>
       </x:c>
     </x:row>
+    <x:row r="685">
+      <x:c r="A685" s="0" t="s">
+        <x:v>1669</x:v>
+      </x:c>
+      <x:c r="B685" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C685" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D685" s="0" t="s">
+        <x:v>1670</x:v>
+      </x:c>
+      <x:c r="E685" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F685" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G685" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H685" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I685" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J685" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="686">
+      <x:c r="A686" s="0" t="s">
+        <x:v>1671</x:v>
+      </x:c>
+      <x:c r="B686" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C686" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D686" s="0" t="s">
+        <x:v>1672</x:v>
+      </x:c>
+      <x:c r="E686" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F686" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G686" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H686" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I686" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J686" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="687">
+      <x:c r="A687" s="0" t="s">
+        <x:v>1673</x:v>
+      </x:c>
+      <x:c r="B687" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C687" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D687" s="0" t="s">
+        <x:v>1674</x:v>
+      </x:c>
+      <x:c r="E687" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F687" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G687" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H687" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I687" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J687" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="688">
+      <x:c r="A688" s="0" t="s">
+        <x:v>1675</x:v>
+      </x:c>
+      <x:c r="B688" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C688" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D688" s="0" t="s">
+        <x:v>1676</x:v>
+      </x:c>
+      <x:c r="E688" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F688" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G688" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H688" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I688" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J688" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="689">
+      <x:c r="A689" s="0" t="s">
+        <x:v>1677</x:v>
+      </x:c>
+      <x:c r="B689" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C689" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D689" s="0" t="s">
+        <x:v>1678</x:v>
+      </x:c>
+      <x:c r="E689" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F689" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G689" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H689" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I689" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J689" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="690">
+      <x:c r="A690" s="0" t="s">
+        <x:v>1679</x:v>
+      </x:c>
+      <x:c r="B690" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C690" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D690" s="0" t="s">
+        <x:v>1680</x:v>
+      </x:c>
+      <x:c r="E690" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="F690" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G690" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H690" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="I690" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="J690" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>